--- a/mbs-perturbation/nano/svm/nearmiss/nano-svm-poly-nearmiss-results.xlsx
+++ b/mbs-perturbation/nano/svm/nearmiss/nano-svm-poly-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.475</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.6333333333333334</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4714285714285715</v>
+        <v>0.1547619047619048</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.7499999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3619047619047619</v>
+        <v>0.9238095238095237</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.8163265306122449</v>
       </c>
       <c r="E4" t="n">
-        <v>0.04750000000000001</v>
+        <v>0.795</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0.36</v>
       </c>
       <c r="C5" t="n">
-        <v>0.65</v>
+        <v>0.45</v>
       </c>
       <c r="D5" t="n">
-        <v>0.787878787878788</v>
+        <v>0.4</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6775</v>
+        <v>0.385</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3333333333333334</v>
+        <v>0.3720930232558139</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7425</v>
+        <v>0.3925</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4</v>
+        <v>0.4944962518740629</v>
       </c>
       <c r="C7" t="n">
-        <v>0.17</v>
+        <v>0.76</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2242424242424243</v>
+        <v>0.5943505774402784</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4601666666666667</v>
+        <v>0.5302142857142857</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/nano/svm/nearmiss/nano-svm-poly-nearmiss-results.xlsx
+++ b/mbs-perturbation/nano/svm/nearmiss/nano-svm-poly-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.475</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C2" t="n">
-        <v>0.95</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6333333333333334</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1547619047619048</v>
+        <v>0.2991689750692521</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7499999999999999</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9238095238095237</v>
+        <v>0.8836565096952909</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6896551724137931</v>
+        <v>0.5</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8163265306122449</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E4" t="n">
-        <v>0.795</v>
+        <v>0.4709141274238227</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.36</v>
+        <v>0.4864864864864865</v>
       </c>
       <c r="C5" t="n">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4</v>
+        <v>0.6545454545454547</v>
       </c>
       <c r="E5" t="n">
-        <v>0.385</v>
+        <v>0.8011695906432749</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3478260869565217</v>
+        <v>0.5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3720930232558139</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3925</v>
+        <v>0.4005847953216374</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4944962518740629</v>
+        <v>0.3906306306306306</v>
       </c>
       <c r="C7" t="n">
-        <v>0.76</v>
+        <v>0.6210526315789473</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5943505774402784</v>
+        <v>0.4657443015891076</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5302142857142857</v>
+        <v>0.5710987996306556</v>
       </c>
     </row>
   </sheetData>
